--- a/项目设计文档/产品设计.xlsx
+++ b/项目设计文档/产品设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\生活管家项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5C07CF-DFA2-4509-BAF7-7CFA0FC8F66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE1E8C3-B7B7-43CF-BEA3-75FE921FD968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>功能需求</t>
   </si>
@@ -268,6 +269,102 @@
   </si>
   <si>
     <t>座右铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队表（teamTable）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamMotto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamCreatedUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamCreatedUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamCreatedByTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人日志（autobiographyTable）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autobiographyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdByUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentAutobiographyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +407,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -334,11 +437,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -356,24 +496,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -662,7 +824,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+      <selection activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -695,124 +857,124 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
@@ -830,16 +992,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC05713-4F21-4936-B1B5-0B0C12657006}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
@@ -870,186 +1032,317 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="10" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="10" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A29"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>